--- a/assets/problemsets/Ex34[PHBicycles]_s.xlsx
+++ b/assets/problemsets/Ex34[PHBicycles]_s.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaoz\Desktop\ASU Employment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E94C71-B0EC-41DA-A3B9-3719DBCA364B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D62074DC-63AB-4862-98C5-00374C4634FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1245" windowWidth="27000" windowHeight="14160" xr2:uid="{05A81D74-AF26-4616-8F2C-163B270AB5CF}"/>
+    <workbookView xWindow="1800" yWindow="1155" windowWidth="27000" windowHeight="14160" xr2:uid="{05A81D74-AF26-4616-8F2C-163B270AB5CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Problem!$H$5:$K$7,Problem!$J$10:$K$12</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Problem!$H$5:$K$7</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
@@ -25,35 +25,35 @@
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Problem!$H$5:$K$7</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Problem!$H$5:$K$7</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Problem!$J$10:$K$12</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Problem!$J$10:$K$12</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Problem!$J$10:$K$12</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Problem!$Q$5:$Q$7</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Problem!$M$5:$M$7</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Problem!$M$5:$M$7</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Problem!$Q$5:$Q$7</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Problem!$M$5:$M$7</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Problem!$Q$5:$Q$7</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Problem!$K$15</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">4</definedName>
-    <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">integer</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Problem!$N$10:$O$12</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">integer</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Problem!$S$5:$S$7</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Problem!$O$5:$O$7</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Problem!$O$5:$O$7</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Problem!$S$5:$S$7</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Problem!$O$5:$O$7</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Problem!$S$5:$S$7</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
@@ -66,7 +66,6 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual" iterate="1"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>initial inventory</t>
   </si>
@@ -119,9 +118,6 @@
     <t>Road</t>
   </si>
   <si>
-    <t>Process cost and resource requirement per unit</t>
-  </si>
-  <si>
     <t>Machine hrs required</t>
   </si>
   <si>
@@ -134,15 +130,9 @@
     <t>Road Bicycle</t>
   </si>
   <si>
-    <t>Process</t>
-  </si>
-  <si>
     <t>Total Cost</t>
   </si>
   <si>
-    <t xml:space="preserve">Process </t>
-  </si>
-  <si>
     <t>Machine Capacity</t>
   </si>
   <si>
@@ -152,9 +142,6 @@
     <t>&lt;=</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
     <t>Parameter info.</t>
   </si>
   <si>
@@ -165,6 +152,15 @@
   </si>
   <si>
     <t>Inventory</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Produce cost for lines and resource requirement per unit</t>
   </si>
 </sst>
 </file>
@@ -227,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -329,12 +325,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -351,9 +367,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -368,6 +381,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,6 +398,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -477,7 +504,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -766,29 +793,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BE75C7-1B29-43E1-9104-3FFF62E4CFE3}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:I22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="A1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -796,22 +823,22 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
@@ -825,18 +852,18 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="25" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="23" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K3" s="24"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -855,7 +882,7 @@
         <v>1100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -869,15 +896,15 @@
       <c r="K4" s="2">
         <v>2</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="12"/>
+      <c r="O4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -899,78 +926,78 @@
         <v>1</v>
       </c>
       <c r="H5" s="7">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I5" s="7">
+        <v>4</v>
+      </c>
+      <c r="J5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="7">
-        <v>121</v>
-      </c>
       <c r="K5" s="7">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="M5">
         <f>SUMPRODUCT(H5:K5,B20:E20)</f>
         <v>8600</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="12">
+        <v>18</v>
+      </c>
+      <c r="O5" s="11">
         <v>8600</v>
       </c>
-      <c r="P5" s="12"/>
+      <c r="P5" s="11"/>
       <c r="Q5">
         <f>SUMPRODUCT(H5:K5,B21:E21)</f>
-        <v>15150</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="S5" s="12">
+        <v>10016</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="11">
         <v>17000</v>
       </c>
-      <c r="T5" s="12"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G6" s="5">
         <v>2</v>
       </c>
       <c r="H6" s="7">
-        <v>1046</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>4</v>
+        <v>1058</v>
       </c>
       <c r="J6" s="7">
-        <v>406</v>
+        <v>102</v>
       </c>
       <c r="K6" s="7">
-        <v>1</v>
+        <v>416</v>
       </c>
       <c r="M6">
         <f>SUMPRODUCT(H6:K6,B20:E20)</f>
         <v>8500</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="12">
+        <v>18</v>
+      </c>
+      <c r="O6" s="11">
         <v>8500</v>
       </c>
-      <c r="P6" s="12"/>
+      <c r="P6" s="11"/>
       <c r="Q6">
         <f>SUMPRODUCT(H6:K6,B21:E21)</f>
-        <v>15373</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="12">
+        <v>16082</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="11">
         <v>16600</v>
       </c>
-      <c r="T6" s="12"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -983,36 +1010,36 @@
         <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="J7" s="7">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="K7" s="7">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M7">
         <f>SUMPRODUCT(H7:K7,B20:E20)</f>
         <v>8800</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="12">
+        <v>18</v>
+      </c>
+      <c r="O7" s="11">
         <v>8800</v>
       </c>
-      <c r="P7" s="12"/>
+      <c r="P7" s="11"/>
       <c r="Q7">
         <f>SUMPRODUCT(H7:K7,B21:E21)</f>
-        <v>15400</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="12">
+        <v>17150</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="11">
         <v>17200</v>
       </c>
-      <c r="T7" s="12"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1024,14 +1051,14 @@
         <v>6</v>
       </c>
       <c r="E8" s="25"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -1046,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>9</v>
@@ -1054,12 +1081,12 @@
       <c r="K9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="9" t="s">
+      <c r="L9" s="11"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1082,22 +1109,22 @@
       <c r="I10" s="6">
         <v>1</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="1">
+        <f>B4+H5+I5-C4</f>
+        <v>2</v>
+      </c>
+      <c r="K10" s="28">
+        <f>B5+J5+K5-C5</f>
+        <v>82</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="11">
         <v>0</v>
       </c>
-      <c r="K10" s="7">
-        <v>193</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10">
-        <f>B4+H5+I5-C4</f>
+      <c r="O10" s="26">
         <v>0</v>
-      </c>
-      <c r="O10">
-        <f>B5+J5+K5-C5</f>
-        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1119,21 +1146,21 @@
       <c r="I11" s="6">
         <v>2</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="1">
+        <f>J10+H6+I6-D4</f>
+        <v>10</v>
+      </c>
+      <c r="K11" s="28">
+        <f>K10+J6+K6-D5</f>
         <v>0</v>
       </c>
-      <c r="K11" s="7">
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11">
-        <f>N10+H6+I6-D4</f>
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f>O10+J6+K6-D5</f>
+      <c r="O11" s="26">
         <v>0</v>
       </c>
     </row>
@@ -1156,33 +1183,33 @@
       <c r="I12" s="6">
         <v>3</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="15">
+        <f>J11+H7+I7-E4</f>
         <v>0</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="27">
+        <f>K11+J7+K7-E5</f>
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12">
-        <f>N11+H7+I7-E4</f>
         <v>0</v>
       </c>
-      <c r="O12">
-        <f>O11+J7+K7-E5</f>
+      <c r="O12" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>25</v>
+      <c r="A15" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>9</v>
@@ -1192,22 +1219,22 @@
         <v>10</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="J15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="17">
+      <c r="J15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="16">
         <f>SUMPRODUCT(H5:I7,B17:C19)+SUMPRODUCT(J5:K7,D17:E19)+SUMPRODUCT(D10:D12,J10:J12)+SUMPRODUCT(K10:K12,E10:E12)</f>
-        <v>368762</v>
+        <v>379658</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>18</v>
+      <c r="A16" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="30">
         <v>2</v>
       </c>
       <c r="D16" s="2">
@@ -1218,13 +1245,13 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="20">
         <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>72</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="28">
         <v>80</v>
       </c>
       <c r="D17" s="1">
@@ -1233,15 +1260,16 @@
       <c r="E17" s="1">
         <v>90</v>
       </c>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="20">
         <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>74</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="28">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -1252,13 +1280,13 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="20">
         <v>3</v>
       </c>
       <c r="B19" s="1">
         <v>75</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="28">
         <v>78</v>
       </c>
       <c r="D19" s="1">
@@ -1269,39 +1297,45 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>12</v>
+      <c r="A20" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="28">
         <v>5</v>
       </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
       <c r="D20" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>13</v>
+      <c r="A21" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="28">
         <v>10</v>
       </c>
-      <c r="C21" s="1">
-        <v>8</v>
-      </c>
       <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
         <v>12</v>
       </c>
-      <c r="E21" s="1">
-        <v>9</v>
-      </c>
-      <c r="S21" s="12"/>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1314,5 +1348,6 @@
     <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>